--- a/haversine/distance_csv/dist.xlsx
+++ b/haversine/distance_csv/dist.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Sule</t>
   </si>
@@ -854,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A3:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,23 +862,9 @@
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -895,7 +878,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>0.27798731661137899</v>
@@ -909,7 +892,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>0.54495914179627103</v>

--- a/haversine/distance_csv/dist.xlsx
+++ b/haversine/distance_csv/dist.xlsx
@@ -16,13 +16,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Sule</t>
+    <t>a</t>
   </si>
   <si>
-    <t>Sule Myodaw Hall</t>
+    <t>b</t>
   </si>
   <si>
-    <t>Yoke Shin Yone</t>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -854,7 +854,7 @@
   <dimension ref="A3:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
